--- a/public/excel/BrandDetailsNew.xlsx
+++ b/public/excel/BrandDetailsNew.xlsx
@@ -59,10 +59,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>nokia - 211</t>
-  </si>
-  <si>
-    <t>Idea</t>
+    <t>Samsung A-21</t>
+  </si>
+  <si>
+    <t>Airtel</t>
   </si>
   <si>
     <t>Admin Admin</t>
@@ -448,7 +448,7 @@
     <col min="4" max="4" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="9" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="8" bestFit="true" customWidth="true" style="0"/>
@@ -501,10 +501,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
-        <v>7405383061</v>
+        <v>7888777888</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -513,7 +513,7 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -536,10 +536,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2">
-        <v>7405383061</v>
+        <v>7888777888</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
@@ -548,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -571,10 +571,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2">
-        <v>7405383061</v>
+        <v>7888777888</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -583,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -606,10 +606,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
-        <v>7405383061</v>
+        <v>7888777888</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -641,10 +641,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
-        <v>7405383061</v>
+        <v>7888777888</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -653,7 +653,7 @@
         <v>14</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>

--- a/public/excel/BrandDetailsNew.xlsx
+++ b/public/excel/BrandDetailsNew.xlsx
@@ -62,7 +62,7 @@
     <t>Samsung A-21</t>
   </si>
   <si>
-    <t>Airtel</t>
+    <t>Idea</t>
   </si>
   <si>
     <t>Admin Admin</t>
@@ -501,10 +501,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
-        <v>7888777888</v>
+        <v>7405383061</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -536,10 +536,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
-        <v>7888777888</v>
+        <v>7405383061</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
@@ -571,10 +571,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2">
-        <v>7888777888</v>
+        <v>7405383061</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -606,10 +606,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2">
-        <v>7888777888</v>
+        <v>7405383061</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
@@ -641,10 +641,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2">
-        <v>7888777888</v>
+        <v>7405383061</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>

--- a/public/excel/BrandDetailsNew.xlsx
+++ b/public/excel/BrandDetailsNew.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Sr. No</t>
   </si>
@@ -59,10 +59,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Samsung A-21</t>
-  </si>
-  <si>
-    <t>Idea</t>
+    <t>Samasung M31</t>
+  </si>
+  <si>
+    <t>VI</t>
   </si>
   <si>
     <t>Admin Admin</t>
@@ -81,18 +81,6 @@
   </si>
   <si>
     <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Twitter</t>
-  </si>
-  <si>
-    <t>www.twiter</t>
-  </si>
-  <si>
-    <t>Whatsapp</t>
-  </si>
-  <si>
-    <t>www.whatsapp.com</t>
   </si>
 </sst>
 </file>
@@ -434,10 +422,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F1" sqref="F1:F6"/>
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -500,11 +488,9 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
-        <v>91</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="2">
-        <v>7405383061</v>
+        <v>123456780</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -513,7 +499,7 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -535,11 +521,9 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1">
-        <v>91</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="2">
-        <v>7405383061</v>
+        <v>123456780</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
@@ -548,7 +532,7 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -570,11 +554,9 @@
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1">
-        <v>91</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="2">
-        <v>7405383061</v>
+        <v>123456780</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -583,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -592,76 +574,6 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>91</v>
-      </c>
-      <c r="E5" s="2">
-        <v>7405383061</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1">
-        <v>91</v>
-      </c>
-      <c r="E6" s="2">
-        <v>7405383061</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
         <v>16</v>
       </c>
     </row>
